--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
       <c r="H2" s="1" t="n">
         <v>46075.97129629629</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -605,7 +605,7 @@
       <c r="H3" s="1" t="n">
         <v>46075.91686342593</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -665,7 +665,7 @@
       <c r="H4" s="1" t="n">
         <v>46075.87778935185</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -725,7 +725,7 @@
       <c r="H5" s="1" t="n">
         <v>46075.67854166667</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -785,7 +785,7 @@
       <c r="H6" s="1" t="n">
         <v>46075.67334490741</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,7 +845,7 @@
       <c r="H7" s="1" t="n">
         <v>46075.58501157408</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -905,7 +905,7 @@
       <c r="H8" s="1" t="n">
         <v>46075.54278935185</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -965,7 +965,7 @@
       <c r="H9" s="1" t="n">
         <v>46075.26767361111</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -1025,7 +1025,7 @@
       <c r="H10" s="1" t="n">
         <v>46075.24659722222</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1085,7 +1085,7 @@
       <c r="H11" s="1" t="n">
         <v>46075.1766087963</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1145,7 +1145,7 @@
       <c r="H12" s="1" t="n">
         <v>46074.98556712963</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1205,7 +1205,7 @@
       <c r="H13" s="1" t="n">
         <v>46074.79289351852</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1265,7 +1265,7 @@
       <c r="H14" s="1" t="n">
         <v>46074.70672453703</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1325,7 +1325,7 @@
       <c r="H15" s="1" t="n">
         <v>46074.61997685185</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1385,7 +1385,7 @@
       <c r="H16" s="1" t="n">
         <v>46074.60773148148</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1445,7 +1445,7 @@
       <c r="H17" s="1" t="n">
         <v>46074.59618055556</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>46074</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1505,7 +1505,7 @@
       <c r="H18" s="1" t="n">
         <v>46073.67701388889</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>46073</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       <c r="H19" s="1" t="n">
         <v>46073.66280092593</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>46073</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="H20" s="1" t="n">
         <v>46072.84804398148</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>46072</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1686,7 +1686,7 @@
       <c r="H21" s="1" t="n">
         <v>46072.43686342592</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <v>46072</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1746,7 +1746,7 @@
       <c r="H22" s="1" t="n">
         <v>46072.16307870371</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <v>46072</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1806,7 +1806,7 @@
       <c r="H23" s="1" t="n">
         <v>46072.08695601852</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <v>46072</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1866,7 +1866,7 @@
       <c r="H24" s="1" t="n">
         <v>46072.06376157407</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="1" t="n">
         <v>46072</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="H25" s="1" t="n">
         <v>46071.55700231482</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <v>46071</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1986,7 +1986,7 @@
       <c r="H26" s="1" t="n">
         <v>46071.16927083334</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="1" t="n">
         <v>46071</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -2046,7 +2046,7 @@
       <c r="H27" s="1" t="n">
         <v>46071.14118055555</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="1" t="n">
         <v>46071</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -2106,7 +2106,7 @@
       <c r="H28" s="1" t="n">
         <v>46071.10277777778</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <v>46071</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2166,7 +2166,7 @@
       <c r="H29" s="1" t="n">
         <v>46071.04484953704</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="1" t="n">
         <v>46071</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2226,7 +2226,7 @@
       <c r="H30" s="1" t="n">
         <v>46070.01094907407</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="1" t="n">
         <v>46070</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2286,7 +2286,7 @@
       <c r="H31" s="1" t="n">
         <v>46069.99767361111</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2346,7 +2346,7 @@
       <c r="H32" s="1" t="n">
         <v>46069.59225694444</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2406,7 +2406,7 @@
       <c r="H33" s="1" t="n">
         <v>46068.7150925926</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2466,7 +2466,7 @@
       <c r="H34" s="1" t="n">
         <v>46068.60178240741</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2526,7 +2526,7 @@
       <c r="H35" s="1" t="n">
         <v>46068.52581018519</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2586,7 +2586,7 @@
       <c r="H36" s="1" t="n">
         <v>46067.80805555556</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2646,7 +2646,7 @@
       <c r="H37" s="1" t="n">
         <v>46067.56975694445</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2706,7 +2706,7 @@
       <c r="H38" s="1" t="n">
         <v>46067.52484953704</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2766,7 +2766,7 @@
       <c r="H39" s="1" t="n">
         <v>46067.51940972222</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2826,7 +2826,7 @@
       <c r="H40" s="1" t="n">
         <v>46067.50440972222</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2886,7 +2886,7 @@
       <c r="H41" s="1" t="n">
         <v>46067.03277777778</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2946,7 +2946,7 @@
       <c r="H42" s="1" t="n">
         <v>46066.92174768518</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -3006,7 +3006,7 @@
       <c r="H43" s="1" t="n">
         <v>46066.88434027778</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -3066,7 +3066,7 @@
       <c r="H44" s="1" t="n">
         <v>46066.64048611111</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -3126,7 +3126,7 @@
       <c r="H45" s="1" t="n">
         <v>46066.63481481482</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -3186,7 +3186,7 @@
       <c r="H46" s="1" t="n">
         <v>46066.54798611111</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -3246,7 +3246,7 @@
       <c r="H47" s="1" t="n">
         <v>46065.96019675926</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -3306,7 +3306,7 @@
       <c r="H48" s="1" t="n">
         <v>46065.88675925926</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3366,7 +3366,7 @@
       <c r="H49" s="1" t="n">
         <v>46065.79699074074</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3426,7 +3426,7 @@
       <c r="H50" s="1" t="n">
         <v>46065.73653935185</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3486,7 +3486,7 @@
       <c r="H51" s="1" t="n">
         <v>46065.58565972222</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3546,7 +3546,7 @@
       <c r="H52" s="1" t="n">
         <v>46065.12163194444</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J52" t="inlineStr">
@@ -3606,7 +3606,7 @@
       <c r="H53" s="1" t="n">
         <v>46064.77092592593</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J53" t="inlineStr">
@@ -3666,7 +3666,7 @@
       <c r="H54" s="1" t="n">
         <v>46064.58863425926</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J54" t="inlineStr">
@@ -3726,7 +3726,7 @@
       <c r="H55" s="1" t="n">
         <v>46064.57231481482</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J55" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="H56" s="1" t="n">
         <v>46063.89873842592</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="1" t="n">
         <v>46063</v>
       </c>
       <c r="J56" t="inlineStr">
@@ -3846,7 +3846,7 @@
       <c r="H57" s="1" t="n">
         <v>46063.75923611111</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="1" t="n">
         <v>46063</v>
       </c>
       <c r="J57" t="inlineStr">
@@ -3894,12 +3894,32 @@
           <t>https://www.instagram.com/p/DU-6KZKAGl6/</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>alejandrolopez3991</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Los que no cumplen a sus trabajadores</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2026-02-24T02:24:42.000Z</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>46077.10048611111</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>02:24:42</t>
+        </is>
+      </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -3909,17 +3929,21 @@
       <c r="M58" t="b">
         <v>0</v>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://instagram.com/alejandrolopez3991</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DU-6KZKAGl6/', 'commentUrl': 'https://www.instagram.com/p/DU-6KZKAGl6/c/18437579293119708', 'id': '18437579293119708', 'text': 'Los que no cumplen a sus trabajadores', 'ownerUsername': 'alejandrolopez3991', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/622887174_17999328251855547_3011480797793209628_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=107&amp;ig_cache_key=GAaBICW7wqUuS-I-ABzNX4DU7copbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_si</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3928,12 +3952,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0ziegN75/</t>
+          <t>https://www.instagram.com/p/DU-6KZKAGl6/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0ziegN75/</t>
+          <t>https://www.instagram.com/p/DU-6KZKAGl6/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3961,7 +3985,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3970,12 +3994,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-00FJgASK/</t>
+          <t>https://www.instagram.com/p/DU-0ziegN75/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-00FJgASK/</t>
+          <t>https://www.instagram.com/p/DU-0ziegN75/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -4003,7 +4027,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4012,12 +4036,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0z9UALVB/</t>
+          <t>https://www.instagram.com/p/DU-00FJgASK/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0z9UALVB/</t>
+          <t>https://www.instagram.com/p/DU-00FJgASK/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4045,7 +4069,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4054,12 +4078,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0zqNAPat/</t>
+          <t>https://www.instagram.com/p/DU-0z9UALVB/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0zqNAPat/</t>
+          <t>https://www.instagram.com/p/DU-0z9UALVB/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4087,7 +4111,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4096,12 +4120,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0p3rAKCq/</t>
+          <t>https://www.instagram.com/p/DU-0zqNAPat/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0p3rAKCq/</t>
+          <t>https://www.instagram.com/p/DU-0zqNAPat/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4129,49 +4153,31 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
+          <t>https://www.instagram.com/p/DU-0p3rAKCq/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
+          <t>https://www.instagram.com/p/DU-0p3rAKCq/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Buu un anuncio con IA no vale la pena</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2026-02-23T04:40:49.000Z</t>
-        </is>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>46076.19501157408</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>46076</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>04:40:49</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4180,12 +4186,12 @@
         <v>0</v>
       </c>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1850142359031601', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE4NTAxNDIzNTkwMzE2MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xODUwMTQyMzU5MDMxNjAx', 'date': '2026-02-23T04:40:49.000Z', 'text': 'Buu un anuncio con IA no vale la pena', 'profileUrl': 'https://www.facebook.com/afka</t>
-        </is>
-      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4209,29 +4215,27 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Esta horrible</t>
+          <t>Buu un anuncio con IA no vale la pena</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-22T23:10:29.000Z</t>
+          <t>2026-02-23T04:40:49.000Z</t>
         </is>
       </c>
       <c r="H65" s="1" t="n">
-        <v>46075.96561342593</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>46075</v>
+        <v>46076.19501157408</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>46076</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>23:10:29</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>04:40:49</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4243,7 +4247,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1576873026919553', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE1NzY4NzMwMjY5MTk1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNTc2ODczMDI2OTE5NTUz', 'date': '2026-02-22T23:10:29.000Z', 'text': 'Esta horrible', 'profileUrl': 'https://www.facebook.com/hunk.jamp', 'profilePicture'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1850142359031601', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE4NTAxNDIzNTkwMzE2MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xODUwMTQyMzU5MDMxNjAx', 'date': '2026-02-23T04:40:49.000Z', 'text': 'Buu un anuncio con IA no vale la pena', 'profileUrl': 'https://www.facebook.com/afka</t>
         </is>
       </c>
     </row>
@@ -4269,29 +4273,27 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>L.im</t>
+          <t>Esta horrible</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-22T16:21:26.000Z</t>
+          <t>2026-02-22T23:10:29.000Z</t>
         </is>
       </c>
       <c r="H66" s="1" t="n">
-        <v>46075.68155092592</v>
-      </c>
-      <c r="I66" s="2" t="n">
+        <v>46075.96561342593</v>
+      </c>
+      <c r="I66" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>16:21:26</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:10:29</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4303,13 +4305,13 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1128463735979715', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzExMjg0NjM3MzU5Nzk3MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMTI4NDYzNzM1OTc5NzE1', 'date': '2026-02-22T16:21:26.000Z', 'text': 'L.im', 'profileUrl': 'https://www.facebook.com/people/Juan-Garcia/pfbid0BAuozSGnKVyB</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1576873026919553', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE1NzY4NzMwMjY5MTk1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNTc2ODczMDI2OTE5NTUz', 'date': '2026-02-22T23:10:29.000Z', 'text': 'Esta horrible', 'profileUrl': 'https://www.facebook.com/hunk.jamp', 'profilePicture'</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4318,40 +4320,38 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Excelente mientras más sellos mejor</t>
+          <t>L.im</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-22T13:10:04.000Z</t>
+          <t>2026-02-22T16:21:26.000Z</t>
         </is>
       </c>
       <c r="H67" s="1" t="n">
-        <v>46075.54865740741</v>
-      </c>
-      <c r="I67" s="2" t="n">
+        <v>46075.68155092592</v>
+      </c>
+      <c r="I67" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>13:10:04</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16:21:26</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4363,13 +4363,13 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AsL1Mom4rUKnBfRFhDNn8N4Xf4zNqt6ZqNx542tDU6yUEJZejxZ5aBet85RVrHZrl?comment_id=1854492045937496', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzE4NTQ0OTIwNDU5Mzc0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV8xODU0NDkyMDQ1OTM3NDk2', 'date': '2026-02-22T13:10:04.000Z', 'text': 'Excelente mientras má</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1128463735979715', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzExMjg0NjM3MzU5Nzk3MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMTI4NDYzNzM1OTc5NzE1', 'date': '2026-02-22T16:21:26.000Z', 'text': 'L.im', 'profileUrl': 'https://www.facebook.com/people/Juan-Garcia/pfbid0BAuozSGnKVyB</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4378,40 +4378,38 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Abelardo presidente</t>
+          <t>Excelente mientras más sellos mejor</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-23T12:17:44.000Z</t>
+          <t>2026-02-22T13:10:04.000Z</t>
         </is>
       </c>
       <c r="H68" s="1" t="n">
-        <v>46076.51231481481</v>
-      </c>
-      <c r="I68" s="2" t="n">
-        <v>46076</v>
+        <v>46075.54865740741</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>46075</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>12:17:44</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>13:10:04</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4423,13 +4421,13 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02zEBQC5xKmk6spWL6QmUAsJ1tfpwBeHR5FynXyDfHuUmdg9R3i6g4FZWnwaiRPsb3l?comment_id=2056282665213231', 'id': 'Y29tbWVudDoxMzU1MzE5ODE2NjQwMjU0XzIwNTYyODI2NjUyMTMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTgxNjY0MDI1NF8yMDU2MjgyNjY1MjEzMjMx', 'date': '2026-02-23T12:17:44.000Z', 'text': 'Abelardo presidente'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AsL1Mom4rUKnBfRFhDNn8N4Xf4zNqt6ZqNx542tDU6yUEJZejxZ5aBet85RVrHZrl?comment_id=1854492045937496', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzE4NTQ0OTIwNDU5Mzc0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV8xODU0NDkyMDQ1OTM3NDk2', 'date': '2026-02-22T13:10:04.000Z', 'text': 'Excelente mientras má</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4438,40 +4436,38 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>Abelardo presidente</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-22T13:08:32.000Z</t>
+          <t>2026-02-23T12:17:44.000Z</t>
         </is>
       </c>
       <c r="H69" s="1" t="n">
-        <v>46075.54759259259</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>46075</v>
+        <v>46076.51231481481</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>46076</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>13:08:32</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>12:17:44</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4483,13 +4479,13 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=1636269211124035', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzE2MzYyNjkyMTExMjQwMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN18xNjM2MjY5MjExMTI0MDM1', 'date': '2026-02-22T13:08:32.000Z', 'text': 'IA', 'profileUrl': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02zEBQC5xKmk6spWL6QmUAsJ1tfpwBeHR5FynXyDfHuUmdg9R3i6g4FZWnwaiRPsb3l?comment_id=2056282665213231', 'id': 'Y29tbWVudDoxMzU1MzE5ODE2NjQwMjU0XzIwNTYyODI2NjUyMTMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTgxNjY0MDI1NF8yMDU2MjgyNjY1MjEzMjMx', 'date': '2026-02-23T12:17:44.000Z', 'text': 'Abelardo presidente'</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4498,34 +4494,34 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>Dejen entrar al ministerio del trabajo a la empresa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-23T03:12:18.000Z</t>
+          <t>2026-02-24T03:26:12.000Z</t>
         </is>
       </c>
       <c r="H70" s="1" t="n">
-        <v>46076.13354166667</v>
+        <v>46077.14319444444</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>03:12:18</t>
+          <t>03:26:12</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4543,13 +4539,13 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=1394909575242457', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzEzOTQ5MDk1NzUyNDI0NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl8xMzk0OTA5NTc1MjQyNDU3', 'date': '2026-02-23T03:12:18.000Z', 'text': 'Z', 'profileUrl': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=912831395058364', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzkxMjgzMTM5NTA1ODM2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN185MTI4MzEzOTUwNTgzNjQ=', 'date': '2026-02-24T03:26:12.000Z', 'text': 'Dejen entrar al minist</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4558,40 +4554,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>🇲🇽❤️🇨🇴 que buen detalle a  esta niña ,no saben cómo le ayuda como persona, saludos desde Bogotá, Colombia</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-22T04:59:11.000Z</t>
+          <t>2026-02-22T13:08:32.000Z</t>
         </is>
       </c>
       <c r="H71" s="1" t="n">
-        <v>46075.2077662037</v>
-      </c>
-      <c r="I71" s="2" t="n">
+        <v>46075.54759259259</v>
+      </c>
+      <c r="I71" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>04:59:11</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>13:08:32</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4603,51 +4597,227 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=929445786197631', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzkyOTQ0NTc4NjE5NzYzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl85Mjk0NDU3ODYxOTc2MzE=', 'date': '2026-02-22T04:59:11.000Z', 'text': '🇲🇽❤️🇨🇴 que buen detal</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=1636269211124035', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzE2MzYyNjkyMTExMjQwMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN18xNjM2MjY5MjExMTI0MDM1', 'date': '2026-02-22T13:08:32.000Z', 'text': 'IA', 'profileUrl': 'h</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>13</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2026-02-24T01:50:57.000Z</t>
+        </is>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>46077.07704861111</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>01:50:57</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=780231848466395', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2Xzc4MDIzMTg0ODQ2NjM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl83ODAyMzE4NDg0NjYzOTU=', 'date': '2026-02-24T01:50:57.000Z', 'text': '[', 'profileUrl': 'ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>13</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2026-02-23T03:12:18.000Z</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>46076.13354166667</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>03:12:18</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=1394909575242457', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzEzOTQ5MDk1NzUyNDI0NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl8xMzk0OTA5NTc1MjQyNDU3', 'date': '2026-02-23T03:12:18.000Z', 'text': 'Z', 'profileUrl': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>🇲🇽❤️🇨🇴 que buen detalle a  esta niña ,no saben cómo le ayuda como persona, saludos desde Bogotá, Colombia</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2026-02-22T04:59:11.000Z</t>
+        </is>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>46075.2077662037</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>04:59:11</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=929445786197631', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzkyOTQ0NTc4NjE5NzYzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl85Mjk0NDU3ODYxOTc2MzE=', 'date': '2026-02-22T04:59:11.000Z', 'text': '🇲🇽❤️🇨🇴 que buen detal</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
         <v>14</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4774,13 +4944,17 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" s="1" t="n">
+        <v>46077.10048611111</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>46077.10048611111</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4993,7 +5167,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5002,7 +5176,7 @@
         <v>46075.54759259259</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>46075.54759259259</v>
+        <v>46077.14319444444</v>
       </c>
     </row>
     <row r="14">
@@ -5020,7 +5194,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5029,7 +5203,7 @@
         <v>46075.2077662037</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>46076.13354166667</v>
+        <v>46077.07704861111</v>
       </c>
     </row>
     <row r="15">
@@ -5066,7 +5240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5111,10 +5285,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -5123,19 +5297,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>56</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>502</v>
       </c>
     </row>
@@ -5150,7 +5343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,7 +5366,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-6KZKAGl6/</t>
+          <t>https://www.instagram.com/p/DU-0ziegN75/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5185,7 +5378,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0ziegN75/</t>
+          <t>https://www.instagram.com/p/DU-00FJgASK/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5197,7 +5390,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-00FJgASK/</t>
+          <t>https://www.instagram.com/p/DU-0z9UALVB/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5209,7 +5402,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0z9UALVB/</t>
+          <t>https://www.instagram.com/p/DU-0zqNAPat/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5221,7 +5414,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0zqNAPat/</t>
+          <t>https://www.instagram.com/p/DU-0p3rAKCq/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5233,22 +5426,10 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DU-0p3rAKCq/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -5305,16 +5486,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3912,7 +3912,7 @@
       <c r="H58" s="1" t="n">
         <v>46077.10048611111</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="1" t="n">
         <v>46077</v>
       </c>
       <c r="J58" t="inlineStr">
@@ -4215,27 +4215,29 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Buu un anuncio con IA no vale la pena</t>
+          <t>Tenían?</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-23T04:40:49.000Z</t>
+          <t>2026-02-25T07:37:55.000Z</t>
         </is>
       </c>
       <c r="H65" s="1" t="n">
-        <v>46076.19501157408</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>46076</v>
+        <v>46078.31799768518</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>04:40:49</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>1</v>
+          <t>07:37:55</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4247,7 +4249,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1850142359031601', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE4NTAxNDIzNTkwMzE2MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xODUwMTQyMzU5MDMxNjAx', 'date': '2026-02-23T04:40:49.000Z', 'text': 'Buu un anuncio con IA no vale la pena', 'profileUrl': 'https://www.facebook.com/afka</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=884988660827602', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5Xzg4NDk4ODY2MDgyNzYwMg==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV84ODQ5ODg2NjA4Mjc2MDI=', 'date': '2026-02-25T07:37:55.000Z', 'text': 'Tenían?', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/1652964</t>
         </is>
       </c>
     </row>
@@ -4273,27 +4275,29 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Esta horrible</t>
+          <t>Hoy cerraron 4 áreas y fueron multados</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-22T23:10:29.000Z</t>
+          <t>2026-02-25T04:51:11.000Z</t>
         </is>
       </c>
       <c r="H66" s="1" t="n">
-        <v>46075.96561342593</v>
-      </c>
-      <c r="I66" s="1" t="n">
-        <v>46075</v>
+        <v>46078.20221064815</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>23:10:29</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
+          <t>04:51:11</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4305,7 +4309,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1576873026919553', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE1NzY4NzMwMjY5MTk1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNTc2ODczMDI2OTE5NTUz', 'date': '2026-02-22T23:10:29.000Z', 'text': 'Esta horrible', 'profileUrl': 'https://www.facebook.com/hunk.jamp', 'profilePicture'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1262916482467047', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzEyNjI5MTY0ODI0NjcwNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMjYyOTE2NDgyNDY3MDQ3', 'date': '2026-02-25T04:51:11.000Z', 'text': 'Hoy cerraron 4 áreas y fueron multados', 'profileUrl': 'https://www.facebook.com/JAB</t>
         </is>
       </c>
     </row>
@@ -4331,27 +4335,29 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>L.im</t>
+          <t>Si tienen tanta energía por qué no contratan con con esa energía a sus trabajadores de la planta de Sopó?</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-22T16:21:26.000Z</t>
+          <t>2026-02-25T04:43:01.000Z</t>
         </is>
       </c>
       <c r="H67" s="1" t="n">
-        <v>46075.68155092592</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>46075</v>
+        <v>46078.19653935185</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>16:21:26</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+          <t>04:43:01</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4363,13 +4369,13 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1128463735979715', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzExMjg0NjM3MzU5Nzk3MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMTI4NDYzNzM1OTc5NzE1', 'date': '2026-02-22T16:21:26.000Z', 'text': 'L.im', 'profileUrl': 'https://www.facebook.com/people/Juan-Garcia/pfbid0BAuozSGnKVyB</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1460483352280580', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE0NjA0ODMzNTIyODA1ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNDYwNDgzMzUyMjgwNTgw', 'date': '2026-02-25T04:43:01.000Z', 'text': 'Si tienen tanta energía por qué no contratan con con esa energía a sus trabajadores </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4378,38 +4384,40 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Excelente mientras más sellos mejor</t>
+          <t>No entiendo el erizo 🦔</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-22T13:10:04.000Z</t>
+          <t>2026-02-25T00:04:25.000Z</t>
         </is>
       </c>
       <c r="H68" s="1" t="n">
-        <v>46075.54865740741</v>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>46075</v>
+        <v>46078.00306712963</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>13:10:04</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
+          <t>00:04:25</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4421,13 +4429,13 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AsL1Mom4rUKnBfRFhDNn8N4Xf4zNqt6ZqNx542tDU6yUEJZejxZ5aBet85RVrHZrl?comment_id=1854492045937496', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzE4NTQ0OTIwNDU5Mzc0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV8xODU0NDkyMDQ1OTM3NDk2', 'date': '2026-02-22T13:10:04.000Z', 'text': 'Excelente mientras má</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1620420789411496', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE2MjA0MjA3ODk0MTE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNjIwNDIwNzg5NDExNDk2', 'date': '2026-02-25T00:04:25.000Z', 'text': 'No entiendo el erizo 🦔', 'profileUrl': 'https://www.facebook.com/natalia.mendivelso.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4436,38 +4444,38 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Abelardo presidente</t>
+          <t>Buu un anuncio con IA no vale la pena</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-23T12:17:44.000Z</t>
+          <t>2026-02-23T04:40:49.000Z</t>
         </is>
       </c>
       <c r="H69" s="1" t="n">
-        <v>46076.51231481481</v>
+        <v>46076.19501157408</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>46076</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>12:17:44</t>
+          <t>04:40:49</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4479,13 +4487,13 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02zEBQC5xKmk6spWL6QmUAsJ1tfpwBeHR5FynXyDfHuUmdg9R3i6g4FZWnwaiRPsb3l?comment_id=2056282665213231', 'id': 'Y29tbWVudDoxMzU1MzE5ODE2NjQwMjU0XzIwNTYyODI2NjUyMTMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTgxNjY0MDI1NF8yMDU2MjgyNjY1MjEzMjMx', 'date': '2026-02-23T12:17:44.000Z', 'text': 'Abelardo presidente'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1850142359031601', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE4NTAxNDIzNTkwMzE2MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xODUwMTQyMzU5MDMxNjAx', 'date': '2026-02-23T04:40:49.000Z', 'text': 'Buu un anuncio con IA no vale la pena', 'profileUrl': 'https://www.facebook.com/afka</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4494,40 +4502,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dejen entrar al ministerio del trabajo a la empresa</t>
+          <t>Esta horrible</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-24T03:26:12.000Z</t>
+          <t>2026-02-22T23:10:29.000Z</t>
         </is>
       </c>
       <c r="H70" s="1" t="n">
-        <v>46077.14319444444</v>
-      </c>
-      <c r="I70" s="2" t="n">
-        <v>46077</v>
+        <v>46075.96561342593</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>46075</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>03:26:12</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:10:29</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4539,13 +4545,13 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=912831395058364', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzkxMjgzMTM5NTA1ODM2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN185MTI4MzEzOTUwNTgzNjQ=', 'date': '2026-02-24T03:26:12.000Z', 'text': 'Dejen entrar al minist</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1576873026919553', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE1NzY4NzMwMjY5MTk1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNTc2ODczMDI2OTE5NTUz', 'date': '2026-02-22T23:10:29.000Z', 'text': 'Esta horrible', 'profileUrl': 'https://www.facebook.com/hunk.jamp', 'profilePicture'</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4554,34 +4560,34 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>L.im</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-22T13:08:32.000Z</t>
+          <t>2026-02-22T16:21:26.000Z</t>
         </is>
       </c>
       <c r="H71" s="1" t="n">
-        <v>46075.54759259259</v>
+        <v>46075.68155092592</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>16:21:26</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4597,13 +4603,13 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=1636269211124035', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzE2MzYyNjkyMTExMjQwMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN18xNjM2MjY5MjExMTI0MDM1', 'date': '2026-02-22T13:08:32.000Z', 'text': 'IA', 'profileUrl': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1128463735979715', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzExMjg0NjM3MzU5Nzk3MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMTI4NDYzNzM1OTc5NzE1', 'date': '2026-02-22T16:21:26.000Z', 'text': 'L.im', 'profileUrl': 'https://www.facebook.com/people/Juan-Garcia/pfbid0BAuozSGnKVyB</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4612,39 +4618,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>Buenos productos, pero que está pasando que no quieren que las entidades que velan por la seguridad de los empleados y el ministerio del trabajo no los dejan entrar a su planta en sopo, algo que esconder porque las empresas que niegan esas visitas siempre tienen problemas de contratos, pagos , acoso laboral , la mayoría de empresas dejan entrar para verificación</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-24T01:50:57.000Z</t>
+          <t>2026-02-24T18:42:26.000Z</t>
         </is>
       </c>
       <c r="H72" s="1" t="n">
-        <v>46077.07704861111</v>
+        <v>46077.77946759259</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>46077</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>01:50:57</t>
+          <t>18:42:26</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -4657,13 +4663,13 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=780231848466395', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2Xzc4MDIzMTg0ODQ2NjM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl83ODAyMzE4NDg0NjYzOTU=', 'date': '2026-02-24T01:50:57.000Z', 'text': '[', 'profileUrl': 'ht</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02EimiYUgthu5JUfuRZJzAhxZNWTHHz66eJdUoXV4nwvdaNEXTytCDATzGWikAqUVxl?comment_id=762116526698473', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1Xzc2MjExNjUyNjY5ODQ3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV83NjIxMTY1MjY2OTg0NzM=', 'date': '2026-02-24T18:42:26.000Z', 'text': 'Buenos productos, per</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4672,34 +4678,34 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>Excelente mientras más sellos mejor</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-23T03:12:18.000Z</t>
+          <t>2026-02-22T13:10:04.000Z</t>
         </is>
       </c>
       <c r="H73" s="1" t="n">
-        <v>46076.13354166667</v>
+        <v>46075.54865740741</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>46076</v>
+        <v>46075</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>03:12:18</t>
+          <t>13:10:04</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -4715,13 +4721,13 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=1394909575242457', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzEzOTQ5MDk1NzUyNDI0NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl8xMzk0OTA5NTc1MjQyNDU3', 'date': '2026-02-23T03:12:18.000Z', 'text': 'Z', 'profileUrl': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AsL1Mom4rUKnBfRFhDNn8N4Xf4zNqt6ZqNx542tDU6yUEJZejxZ5aBet85RVrHZrl?comment_id=1854492045937496', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzE4NTQ0OTIwNDU5Mzc0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV8xODU0NDkyMDQ1OTM3NDk2', 'date': '2026-02-22T13:10:04.000Z', 'text': 'Excelente mientras má</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4730,34 +4736,34 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>🇲🇽❤️🇨🇴 que buen detalle a  esta niña ,no saben cómo le ayuda como persona, saludos desde Bogotá, Colombia</t>
+          <t>Abelardo presidente</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-22T04:59:11.000Z</t>
+          <t>2026-02-23T12:17:44.000Z</t>
         </is>
       </c>
       <c r="H74" s="1" t="n">
-        <v>46075.2077662037</v>
+        <v>46076.51231481481</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>04:59:11</t>
+          <t>12:17:44</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -4773,51 +4779,341 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=929445786197631', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzkyOTQ0NTc4NjE5NzYzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl85Mjk0NDU3ODYxOTc2MzE=', 'date': '2026-02-22T04:59:11.000Z', 'text': '🇲🇽❤️🇨🇴 que buen detal</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02zEBQC5xKmk6spWL6QmUAsJ1tfpwBeHR5FynXyDfHuUmdg9R3i6g4FZWnwaiRPsb3l?comment_id=2056282665213231', 'id': 'Y29tbWVudDoxMzU1MzE5ODE2NjQwMjU0XzIwNTYyODI2NjUyMTMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTgxNjY0MDI1NF8yMDU2MjgyNjY1MjEzMjMx', 'date': '2026-02-23T12:17:44.000Z', 'text': 'Abelardo presidente'</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>12</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dejen entrar al ministerio del trabajo a la empresa</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2026-02-24T03:26:12.000Z</t>
+        </is>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>46077.14319444444</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>03:26:12</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=912831395058364', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzkxMjgzMTM5NTA1ODM2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN185MTI4MzEzOTUwNTgzNjQ=', 'date': '2026-02-24T03:26:12.000Z', 'text': 'Dejen entrar al minist</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>12</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2026-02-22T13:08:32.000Z</t>
+        </is>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>46075.54759259259</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=1636269211124035', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzE2MzYyNjkyMTExMjQwMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN18xNjM2MjY5MjExMTI0MDM1', 'date': '2026-02-22T13:08:32.000Z', 'text': 'IA', 'profileUrl': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>13</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2026-02-24T01:50:57.000Z</t>
+        </is>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>46077.07704861111</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>01:50:57</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=780231848466395', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2Xzc4MDIzMTg0ODQ2NjM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl83ODAyMzE4NDg0NjYzOTU=', 'date': '2026-02-24T01:50:57.000Z', 'text': '[', 'profileUrl': 'ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>13</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2026-02-23T03:12:18.000Z</t>
+        </is>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>46076.13354166667</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>03:12:18</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=1394909575242457', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzEzOTQ5MDk1NzUyNDI0NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl8xMzk0OTA5NTc1MjQyNDU3', 'date': '2026-02-23T03:12:18.000Z', 'text': 'Z', 'profileUrl': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>13</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>🇲🇽❤️🇨🇴 que buen detalle a  esta niña ,no saben cómo le ayuda como persona, saludos desde Bogotá, Colombia</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2026-02-22T04:59:11.000Z</t>
+        </is>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>46075.2077662037</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>04:59:11</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=929445786197631', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzkyOTQ0NTc4NjE5NzYzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl85Mjk0NDU3ODYxOTc2MzE=', 'date': '2026-02-22T04:59:11.000Z', 'text': '🇲🇽❤️🇨🇴 que buen detal</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>14</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5086,7 +5382,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5095,7 +5391,7 @@
         <v>46075.68155092592</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>46076.19501157408</v>
+        <v>46078.31799768518</v>
       </c>
     </row>
     <row r="11">
@@ -5113,16 +5409,16 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>46075.54865740741</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>46075.54865740741</v>
+        <v>46077.77946759259</v>
       </c>
     </row>
     <row r="12">
@@ -5285,13 +5581,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4215,23 +4215,23 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tenían?</t>
+          <t>Con leche de cerdos bien jajaja</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-25T07:37:55.000Z</t>
+          <t>2026-02-26T09:18:21.000Z</t>
         </is>
       </c>
       <c r="H65" s="1" t="n">
-        <v>46078.31799768518</v>
+        <v>46079.38774305556</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>07:37:55</t>
+          <t>09:18:21</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4249,7 +4249,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=884988660827602', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5Xzg4NDk4ODY2MDgyNzYwMg==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV84ODQ5ODg2NjA4Mjc2MDI=', 'date': '2026-02-25T07:37:55.000Z', 'text': 'Tenían?', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/1652964</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=2344234112718515', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzIzNDQyMzQxMTI3MTg1MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8yMzQ0MjM0MTEyNzE4NTE1', 'date': '2026-02-26T09:18:21.000Z', 'text': 'Con leche de cerdos bien jajaja', 'profileUrl': 'https://www.facebook.com/zhamiir.go</t>
         </is>
       </c>
     </row>
@@ -4275,23 +4275,23 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hoy cerraron 4 áreas y fueron multados</t>
+          <t>Alpina solo tengo agradecimientos gracias a ti mi hija esta cursando la universidad mi pareja, tiene muy buen sueldo no importa lo que digan esos desagradecidos sindicalistas a  Alpina le debo mucho y los demás empleados también aunque sean tan desagradecidos y saben que Alqueria sacó a muchos antiguos y contrata ahora sólo por bolsa de empleo encambio ustedes mantienen su personal intacto</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-25T04:51:11.000Z</t>
+          <t>2026-02-26T04:19:16.000Z</t>
         </is>
       </c>
       <c r="H66" s="1" t="n">
-        <v>46078.20221064815</v>
+        <v>46079.18004629629</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>04:51:11</t>
+          <t>04:19:16</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4309,7 +4309,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1262916482467047', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzEyNjI5MTY0ODI0NjcwNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMjYyOTE2NDgyNDY3MDQ3', 'date': '2026-02-25T04:51:11.000Z', 'text': 'Hoy cerraron 4 áreas y fueron multados', 'profileUrl': 'https://www.facebook.com/JAB</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1437697244757625', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE0Mzc2OTcyNDQ3NTc2MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNDM3Njk3MjQ0NzU3NjI1', 'date': '2026-02-26T04:19:16.000Z', 'text': 'Alpina solo tengo agradecimientos gracias a ti mi hija esta cursando la universidad </t>
         </is>
       </c>
     </row>
@@ -4335,23 +4335,23 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Si tienen tanta energía por qué no contratan con con esa energía a sus trabajadores de la planta de Sopó?</t>
+          <t>Aparte de explotar a sus trabajadores a ahora hace publicidad con IA. esta empresa si no quiere es gastar en nada. Ya deje de consumir sus productos por exclavizsantes</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-25T04:43:01.000Z</t>
+          <t>2026-02-26T02:40:41.000Z</t>
         </is>
       </c>
       <c r="H67" s="1" t="n">
-        <v>46078.19653935185</v>
+        <v>46079.11158564815</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>04:43:01</t>
+          <t>02:40:41</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4369,7 +4369,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1460483352280580', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE0NjA0ODMzNTIyODA1ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNDYwNDgzMzUyMjgwNTgw', 'date': '2026-02-25T04:43:01.000Z', 'text': 'Si tienen tanta energía por qué no contratan con con esa energía a sus trabajadores </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1292072879649747', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzEyOTIwNzI4Nzk2NDk3NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMjkyMDcyODc5NjQ5NzQ3', 'date': '2026-02-26T02:40:41.000Z', 'text': 'Aparte de explotar a sus trabajadores a ahora hace publicidad con IA. esta empresa s</t>
         </is>
       </c>
     </row>
@@ -4395,23 +4395,23 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>No entiendo el erizo 🦔</t>
+          <t>Y ¿Como va la miseria?</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-25T00:04:25.000Z</t>
+          <t>2026-02-26T00:40:20.000Z</t>
         </is>
       </c>
       <c r="H68" s="1" t="n">
-        <v>46078.00306712963</v>
+        <v>46079.02800925926</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>00:04:25</t>
+          <t>00:40:20</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4429,7 +4429,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1620420789411496', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE2MjA0MjA3ODk0MTE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNjIwNDIwNzg5NDExNDk2', 'date': '2026-02-25T00:04:25.000Z', 'text': 'No entiendo el erizo 🦔', 'profileUrl': 'https://www.facebook.com/natalia.mendivelso.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1488494039337579', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE0ODg0OTQwMzkzMzc1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNDg4NDk0MDM5MzM3NTc5', 'date': '2026-02-26T00:40:20.000Z', 'text': 'Y ¿Como va la miseria?', 'profileUrl': 'https://www.facebook.com/Marck.T800', 'profi</t>
         </is>
       </c>
     </row>
@@ -4455,27 +4455,29 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Buu un anuncio con IA no vale la pena</t>
+          <t>Empresa maluca jajajaja</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-23T04:40:49.000Z</t>
+          <t>2026-02-25T23:55:50.000Z</t>
         </is>
       </c>
       <c r="H69" s="1" t="n">
-        <v>46076.19501157408</v>
-      </c>
-      <c r="I69" s="1" t="n">
-        <v>46076</v>
+        <v>46078.99710648148</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>04:40:49</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>1</v>
+          <t>23:55:50</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4487,7 +4489,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1850142359031601', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE4NTAxNDIzNTkwMzE2MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xODUwMTQyMzU5MDMxNjAx', 'date': '2026-02-23T04:40:49.000Z', 'text': 'Buu un anuncio con IA no vale la pena', 'profileUrl': 'https://www.facebook.com/afka</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1603733440944499', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE2MDM3MzM0NDA5NDQ0OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNjAzNzMzNDQwOTQ0NDk5', 'date': '2026-02-25T23:55:50.000Z', 'text': 'Empresa maluca jajajaja', 'profileUrl': 'https://www.facebook.com/marcos.sanchez.800</t>
         </is>
       </c>
     </row>
@@ -4513,27 +4515,29 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Esta horrible</t>
+          <t>Avanzan tan rápido que llegó ministerio de trabajo y los freno en seco, duro el golpe de realidad .</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-22T23:10:29.000Z</t>
+          <t>2026-02-25T22:45:19.000Z</t>
         </is>
       </c>
       <c r="H70" s="1" t="n">
-        <v>46075.96561342593</v>
-      </c>
-      <c r="I70" s="1" t="n">
-        <v>46075</v>
+        <v>46078.94813657407</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>23:10:29</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+          <t>22:45:19</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4545,7 +4549,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1576873026919553', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE1NzY4NzMwMjY5MTk1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNTc2ODczMDI2OTE5NTUz', 'date': '2026-02-22T23:10:29.000Z', 'text': 'Esta horrible', 'profileUrl': 'https://www.facebook.com/hunk.jamp', 'profilePicture'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1470059238076982', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE0NzAwNTkyMzgwNzY5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNDcwMDU5MjM4MDc2OTgy', 'date': '2026-02-25T22:45:19.000Z', 'text': 'Avanzan tan rápido que llegó ministerio de trabajo y los freno en seco, duro el golp</t>
         </is>
       </c>
     </row>
@@ -4571,27 +4575,29 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>L.im</t>
+          <t>Repailas</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-22T16:21:26.000Z</t>
+          <t>2026-02-25T22:30:44.000Z</t>
         </is>
       </c>
       <c r="H71" s="1" t="n">
-        <v>46075.68155092592</v>
-      </c>
-      <c r="I71" s="1" t="n">
-        <v>46075</v>
+        <v>46078.93800925926</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>16:21:26</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
+          <t>22:30:44</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4603,13 +4609,13 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1128463735979715', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzExMjg0NjM3MzU5Nzk3MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMTI4NDYzNzM1OTc5NzE1', 'date': '2026-02-22T16:21:26.000Z', 'text': 'L.im', 'profileUrl': 'https://www.facebook.com/people/Juan-Garcia/pfbid0BAuozSGnKVyB</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=949035187682067', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5Xzk0OTAzNTE4NzY4MjA2Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV85NDkwMzUxODc2ODIwNjc=', 'date': '2026-02-25T22:30:44.000Z', 'text': 'Repailas', 'profileUrl': 'https://www.facebook.com/people/Carlos-Diaz/pfbid0SPmStWUAn</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4618,34 +4624,34 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Buenos productos, pero que está pasando que no quieren que las entidades que velan por la seguridad de los empleados y el ministerio del trabajo no los dejan entrar a su planta en sopo, algo que esconder porque las empresas que niegan esas visitas siempre tienen problemas de contratos, pagos , acoso laboral , la mayoría de empresas dejan entrar para verificación</t>
+          <t>Con malas prácticas de producción y riesgo a los empleados no se puede.. hay q mejorar</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-24T18:42:26.000Z</t>
+          <t>2026-02-25T15:18:42.000Z</t>
         </is>
       </c>
       <c r="H72" s="1" t="n">
-        <v>46077.77946759259</v>
+        <v>46078.63798611111</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>18:42:26</t>
+          <t>15:18:42</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4663,13 +4669,13 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02EimiYUgthu5JUfuRZJzAhxZNWTHHz66eJdUoXV4nwvdaNEXTytCDATzGWikAqUVxl?comment_id=762116526698473', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1Xzc2MjExNjUyNjY5ODQ3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV83NjIxMTY1MjY2OTg0NzM=', 'date': '2026-02-24T18:42:26.000Z', 'text': 'Buenos productos, per</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=919631594048576', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzkxOTYzMTU5NDA0ODU3Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV85MTk2MzE1OTQwNDg1NzY=', 'date': '2026-02-25T15:18:42.000Z', 'text': 'Con malas prácticas de producción y riesgo a los empleados no se puede.. hay q mejora</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4678,38 +4684,40 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Excelente mientras más sellos mejor</t>
+          <t>Doña Sandra mira ve, animación con IA... que desastre jajaja</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-22T13:10:04.000Z</t>
+          <t>2026-02-25T14:13:18.000Z</t>
         </is>
       </c>
       <c r="H73" s="1" t="n">
-        <v>46075.54865740741</v>
-      </c>
-      <c r="I73" s="1" t="n">
-        <v>46075</v>
+        <v>46078.59256944444</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>46078</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>13:10:04</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+          <t>14:13:18</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4721,13 +4729,13 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AsL1Mom4rUKnBfRFhDNn8N4Xf4zNqt6ZqNx542tDU6yUEJZejxZ5aBet85RVrHZrl?comment_id=1854492045937496', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzE4NTQ0OTIwNDU5Mzc0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV8xODU0NDkyMDQ1OTM3NDk2', 'date': '2026-02-22T13:10:04.000Z', 'text': 'Excelente mientras má</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1652933512547490', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE2NTI5MzM1MTI1NDc0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNjUyOTMzNTEyNTQ3NDkw', 'date': '2026-02-25T14:13:18.000Z', 'text': 'Doña Sandra mira ve, animación con IA… que desastre jajaja', 'profileUrl': 'https://</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4736,34 +4744,34 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Abelardo presidente</t>
+          <t>Tenían?</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-02-23T12:17:44.000Z</t>
+          <t>2026-02-25T07:37:55.000Z</t>
         </is>
       </c>
       <c r="H74" s="1" t="n">
-        <v>46076.51231481481</v>
+        <v>46078.31799768518</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>46076</v>
+        <v>46078</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>12:17:44</t>
+          <t>07:37:55</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -4779,13 +4787,13 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02zEBQC5xKmk6spWL6QmUAsJ1tfpwBeHR5FynXyDfHuUmdg9R3i6g4FZWnwaiRPsb3l?comment_id=2056282665213231', 'id': 'Y29tbWVudDoxMzU1MzE5ODE2NjQwMjU0XzIwNTYyODI2NjUyMTMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTgxNjY0MDI1NF8yMDU2MjgyNjY1MjEzMjMx', 'date': '2026-02-23T12:17:44.000Z', 'text': 'Abelardo presidente'</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=884988660827602', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5Xzg4NDk4ODY2MDgyNzYwMg==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV84ODQ5ODg2NjA4Mjc2MDI=', 'date': '2026-02-25T07:37:55.000Z', 'text': 'Tenían?', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/1652964</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4794,34 +4802,34 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dejen entrar al ministerio del trabajo a la empresa</t>
+          <t>Hoy cerraron 4 áreas y fueron multados</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-24T03:26:12.000Z</t>
+          <t>2026-02-25T04:51:11.000Z</t>
         </is>
       </c>
       <c r="H75" s="1" t="n">
-        <v>46077.14319444444</v>
+        <v>46078.20221064815</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>03:26:12</t>
+          <t>04:51:11</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4837,13 +4845,13 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=912831395058364', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzkxMjgzMTM5NTA1ODM2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN185MTI4MzEzOTUwNTgzNjQ=', 'date': '2026-02-24T03:26:12.000Z', 'text': 'Dejen entrar al minist</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1262916482467047', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzEyNjI5MTY0ODI0NjcwNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMjYyOTE2NDgyNDY3MDQ3', 'date': '2026-02-25T04:51:11.000Z', 'text': 'Hoy cerraron 4 áreas y fueron multados', 'profileUrl': 'https://www.facebook.com/JAB</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4852,34 +4860,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>Si tienen tanta energía por qué no contratan con con esa energía a sus trabajadores de la planta de Sopó?</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-22T13:08:32.000Z</t>
+          <t>2026-02-25T04:43:01.000Z</t>
         </is>
       </c>
       <c r="H76" s="1" t="n">
-        <v>46075.54759259259</v>
+        <v>46078.19653935185</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>46075</v>
+        <v>46078</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>04:43:01</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4895,13 +4903,13 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=1636269211124035', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzE2MzYyNjkyMTExMjQwMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN18xNjM2MjY5MjExMTI0MDM1', 'date': '2026-02-22T13:08:32.000Z', 'text': 'IA', 'profileUrl': 'h</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1460483352280580', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE0NjA0ODMzNTIyODA1ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNDYwNDgzMzUyMjgwNTgw', 'date': '2026-02-25T04:43:01.000Z', 'text': 'Si tienen tanta energía por qué no contratan con con esa energía a sus trabajadores </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4910,34 +4918,34 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>No entiendo el erizo 🦔</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-24T01:50:57.000Z</t>
+          <t>2026-02-25T00:04:25.000Z</t>
         </is>
       </c>
       <c r="H77" s="1" t="n">
-        <v>46077.07704861111</v>
+        <v>46078.00306712963</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>01:50:57</t>
+          <t>00:04:25</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -4953,13 +4961,13 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=780231848466395', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2Xzc4MDIzMTg0ODQ2NjM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl83ODAyMzE4NDg0NjYzOTU=', 'date': '2026-02-24T01:50:57.000Z', 'text': '[', 'profileUrl': 'ht</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1620420789411496', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE2MjA0MjA3ODk0MTE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNjIwNDIwNzg5NDExNDk2', 'date': '2026-02-25T00:04:25.000Z', 'text': 'No entiendo el erizo 🦔', 'profileUrl': 'https://www.facebook.com/natalia.mendivelso.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4968,38 +4976,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>Buu un anuncio con IA no vale la pena</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2026-02-23T03:12:18.000Z</t>
+          <t>2026-02-23T04:40:49.000Z</t>
         </is>
       </c>
       <c r="H78" s="1" t="n">
-        <v>46076.13354166667</v>
+        <v>46076.19501157408</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>46076</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>03:12:18</t>
+          <t>04:40:49</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -5011,13 +5019,13 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=1394909575242457', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzEzOTQ5MDk1NzUyNDI0NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl8xMzk0OTA5NTc1MjQyNDU3', 'date': '2026-02-23T03:12:18.000Z', 'text': 'Z', 'profileUrl': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1850142359031601', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE4NTAxNDIzNTkwMzE2MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xODUwMTQyMzU5MDMxNjAx', 'date': '2026-02-23T04:40:49.000Z', 'text': 'Buu un anuncio con IA no vale la pena', 'profileUrl': 'https://www.facebook.com/afka</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5026,34 +5034,34 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>🇲🇽❤️🇨🇴 que buen detalle a  esta niña ,no saben cómo le ayuda como persona, saludos desde Bogotá, Colombia</t>
+          <t>Esta horrible</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-22T04:59:11.000Z</t>
+          <t>2026-02-22T23:10:29.000Z</t>
         </is>
       </c>
       <c r="H79" s="1" t="n">
-        <v>46075.2077662037</v>
+        <v>46075.96561342593</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>46075</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>04:59:11</t>
+          <t>23:10:29</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -5069,51 +5077,693 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=929445786197631', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzkyOTQ0NTc4NjE5NzYzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl85Mjk0NDU3ODYxOTc2MzE=', 'date': '2026-02-22T04:59:11.000Z', 'text': '🇲🇽❤️🇨🇴 que buen detal</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1576873026919553', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzE1NzY4NzMwMjY5MTk1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xNTc2ODczMDI2OTE5NTUz', 'date': '2026-02-22T23:10:29.000Z', 'text': 'Esta horrible', 'profileUrl': 'https://www.facebook.com/hunk.jamp', 'profilePicture'</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>9</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>L.im</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:21:26.000Z</t>
+        </is>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>46075.68155092592</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>16:21:26</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02Lvcp1oG619xVnsV3bc76GAPfuZZVHR1CqiusKGHsrdcUxcRbZD8UmCgGa1GjoZNLl', 'commentUrl': 'https://www.facebook.com/reel/954318424439463/?comment_id=1128463735979715', 'id': 'Y29tbWVudDoxMzU1MzUzNTMzMzAzNTQ5XzExMjg0NjM3MzU5Nzk3MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTM1MzUzMzMwMzU0OV8xMTI4NDYzNzM1OTc5NzE1', 'date': '2026-02-22T16:21:26.000Z', 'text': 'L.im', 'profileUrl': 'https://www.facebook.com/people/Juan-Garcia/pfbid0BAuozSGnKVyB</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Porque les sellaron las plantas digan</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2026-02-26T04:25:59.000Z</t>
+        </is>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>46079.18471064815</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>04:25:59</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AhB14fVL2qx5SD8JHw7PwPqCUxXUGopGwQGTLnRSaehsqyGqwZnTsYFGthyLKZDDl?comment_id=947752934269848', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1Xzk0Nzc1MjkzNDI2OTg0OA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV85NDc3NTI5MzQyNjk4NDg=', 'date': '2026-02-26T04:25:59.000Z', 'text': 'Porque les sellaron la</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sólo dulce</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2026-02-25T17:03:55.000Z</t>
+        </is>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>46078.71105324074</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>17:03:55</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AhB14fVL2qx5SD8JHw7PwPqCUxXUGopGwQGTLnRSaehsqyGqwZnTsYFGthyLKZDDl?comment_id=909476415006764', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzkwOTQ3NjQxNTAwNjc2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV85MDk0NzY0MTUwMDY3NjQ=', 'date': '2026-02-25T17:03:55.000Z', 'text': 'Sólo dulce', 'profileU</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Buenos productos, pero que está pasando que no quieren que las entidades que velan por la seguridad de los empleados y el ministerio del trabajo no los dejan entrar a su planta en sopo, algo que esconder porque las empresas que niegan esas visitas siempre tienen problemas de contratos, pagos , acoso laboral , la mayoría de empresas dejan entrar para verificación</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2026-02-24T18:42:26.000Z</t>
+        </is>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>46077.77946759259</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>18:42:26</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02EimiYUgthu5JUfuRZJzAhxZNWTHHz66eJdUoXV4nwvdaNEXTytCDATzGWikAqUVxl?comment_id=762116526698473', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1Xzc2MjExNjUyNjY5ODQ3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV83NjIxMTY1MjY2OTg0NzM=', 'date': '2026-02-24T18:42:26.000Z', 'text': 'Buenos productos, per</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Excelente mientras más sellos mejor</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2026-02-22T13:10:04.000Z</t>
+        </is>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>46075.54865740741</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>13:10:04</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02j6nYjrQyFT4kC5WCnc485xfbrPnj9bq6iosBp9uWM7HbYULsmpBG8N7jyoG2pU7Al', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0AsL1Mom4rUKnBfRFhDNn8N4Xf4zNqt6ZqNx542tDU6yUEJZejxZ5aBet85RVrHZrl?comment_id=1854492045937496', 'id': 'Y29tbWVudDoxMzU1MzE5NzM5OTczNTk1XzE4NTQ0OTIwNDU5Mzc0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTczOTk3MzU5NV8xODU0NDkyMDQ1OTM3NDk2', 'date': '2026-02-22T13:10:04.000Z', 'text': 'Excelente mientras má</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Abelardo presidente</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2026-02-23T12:17:44.000Z</t>
+        </is>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>46076.51231481481</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>12:17:44</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid037gDSZqgkQPeeHUGCHH2T5PiRUTQwuhNfVPqyHKAdbmrEp2BCX28Nb6gt6GJgWPjul', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02zEBQC5xKmk6spWL6QmUAsJ1tfpwBeHR5FynXyDfHuUmdg9R3i6g4FZWnwaiRPsb3l?comment_id=2056282665213231', 'id': 'Y29tbWVudDoxMzU1MzE5ODE2NjQwMjU0XzIwNTYyODI2NjUyMTMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTgxNjY0MDI1NF8yMDU2MjgyNjY1MjEzMjMx', 'date': '2026-02-23T12:17:44.000Z', 'text': 'Abelardo presidente'</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>12</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Dejen entrar al ministerio del trabajo a la empresa</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-24T03:26:12.000Z</t>
+        </is>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>46077.14319444444</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>03:26:12</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=912831395058364', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzkxMjgzMTM5NTA1ODM2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN185MTI4MzEzOTUwNTgzNjQ=', 'date': '2026-02-24T03:26:12.000Z', 'text': 'Dejen entrar al minist</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>12</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-22T13:08:32.000Z</t>
+        </is>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>46075.54759259259</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0z7C5ALYungqCbSQ3Uvup34gzsaTjJaeVQKymhNZGtkiueAx9UuDWdvVnVFBv3nLMl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02fGypGEYhjQLKFgZYktB7ZWfoC8BCCQQzFPpj3dznJcrVGfyAi8QWSdQmiYahcHobl?comment_id=1636269211124035', 'id': 'Y29tbWVudDoxMzU1MzE5ODUzMzA2OTE3XzE2MzYyNjkyMTExMjQwMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTg1MzMwNjkxN18xNjM2MjY5MjExMTI0MDM1', 'date': '2026-02-22T13:08:32.000Z', 'text': 'IA', 'profileUrl': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>13</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-24T01:50:57.000Z</t>
+        </is>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>46077.07704861111</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>01:50:57</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=780231848466395', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2Xzc4MDIzMTg0ODQ2NjM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl83ODAyMzE4NDg0NjYzOTU=', 'date': '2026-02-24T01:50:57.000Z', 'text': '[', 'profileUrl': 'ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-23T03:12:18.000Z</t>
+        </is>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>46076.13354166667</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>03:12:18</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=1394909575242457', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzEzOTQ5MDk1NzUyNDI0NTc=', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl8xMzk0OTA5NTc1MjQyNDU3', 'date': '2026-02-23T03:12:18.000Z', 'text': 'Z', 'profileUrl': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>13</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>🇲🇽❤️🇨🇴 que buen detalle a  esta niña ,no saben cómo le ayuda como persona, saludos desde Bogotá, Colombia</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2026-02-22T04:59:11.000Z</t>
+        </is>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>46075.2077662037</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>46075</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>04:59:11</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid032YWRc8e1pxR2dTjEUmNaCcUgUfVxfixXoJyY4qa8N4MWGKjzbUBfusr5Yzh7jus3l', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VArEkWtHB536Axnak9HPx5hFH97YLENAye6A996ai4K8TB13TdsVDLoznoprjAu7l?comment_id=929445786197631', 'id': 'Y29tbWVudDoxMzU1MzE5Nzk2NjQwMjU2XzkyOTQ0NTc4NjE5NzYzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTM1NTMxOTc5NjY0MDI1Nl85Mjk0NDU3ODYxOTc2MzE=', 'date': '2026-02-22T04:59:11.000Z', 'text': '🇲🇽❤️🇨🇴 que buen detal</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
         <v>14</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064867445065/posts/pfbid032WDQZsnkL54P1oyPvG6txunpYgQ8PMDQYt3SsozwxtWSB48fuSeJfEd2qLSX7l</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="b">
-        <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5382,16 +6032,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>46075.68155092592</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>46078.31799768518</v>
+        <v>46079.38774305556</v>
       </c>
     </row>
     <row r="11">
@@ -5409,16 +6059,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>46075.54865740741</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>46077.77946759259</v>
+        <v>46079.18471064815</v>
       </c>
     </row>
     <row r="12">
@@ -5581,13 +6231,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5791,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
